--- a/samples/Sample-SA-Markets.xlsx
+++ b/samples/Sample-SA-Markets.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="457">
-  <si>
-    <t>URL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="458">
+  <si>
+    <t>Google Maps Links</t>
   </si>
   <si>
     <t>Name</t>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>طريق الملك عبدالله، ميناء الملك فهد الصناعي، الجبيل 35815، المملكة العربية السعودية</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>https://www.google.com/maps/place/%D8%A7%D8%B3%D9%88%D8%A7%D9%82+%D8%A7%D9%84%D8%AE%D9%84%D9%8A%D8%AC%E2%80%AD/data=!4m7!3m6!1s0x3e37915ec60256ad:0x5872e57029eb8adb!8m2!3d25.3500791!4d49.6062801!16s%2Fg%2F11hcsz_29g!19sChIJrVYCxl6RNz4R24rrKXDlclg?authuser=0&amp;hl=ar&amp;rclk=1</t>
@@ -1395,10 +1398,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1431,58 +1434,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1499,8 +1450,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1516,21 +1505,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1539,14 +1513,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1554,7 +1543,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1575,13 +1578,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1593,25 +1614,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1629,7 +1692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1647,25 +1710,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1677,79 +1752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1784,15 +1787,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1819,9 +1813,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1858,10 +1854,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1881,10 +1875,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1893,10 +1896,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1906,124 +1909,124 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2039,7 +2042,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2401,7 +2404,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2482,7 +2485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:6">
+    <row r="4" customFormat="1" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -2501,151 +2504,157 @@
       <c r="F4" t="s">
         <v>26</v>
       </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -2654,125 +2663,125 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -2781,41 +2790,44 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -2824,44 +2836,44 @@
         <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -2870,466 +2882,481 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:8">
       <c r="A21" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:8">
       <c r="A22" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:8">
       <c r="A24" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:8">
       <c r="A25" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
         <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F30" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:7">
       <c r="A32" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F32" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:6">
+        <v>190</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
@@ -3338,70 +3365,70 @@
         <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G41" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
@@ -3410,44 +3437,44 @@
         <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F45" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G45" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B46" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
@@ -3456,188 +3483,205 @@
         <v>24</v>
       </c>
       <c r="E46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F46" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B47" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G47" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:7">
       <c r="A48" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B48" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E48" t="s">
         <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:6">
+        <v>236</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E49" t="s">
         <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:6">
+        <v>239</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B50" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E50" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F50" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:6">
+        <v>243</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B51" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E51" t="s">
         <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:6">
+        <v>246</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B52" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B53" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F53" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G53" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H53" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B54" t="s">
-        <v>257</v>
-      </c>
-      <c r="C54"/>
+        <v>258</v>
+      </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G54" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:6">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:7">
       <c r="A55" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B55" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -3646,196 +3690,205 @@
         <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F55" t="s">
-        <v>264</v>
+        <v>265</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B56" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F56" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G56" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B57" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F57" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G57" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B58" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F58" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G58" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B59" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G59" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B60" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
       </c>
       <c r="D60" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E60" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F60" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G60" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="1:6">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:7">
       <c r="A61" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E61" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F61" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:7">
       <c r="A62" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B62" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F62" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B63" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
       </c>
       <c r="D63" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E63" t="s">
         <v>25</v>
       </c>
       <c r="F63" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G63" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:7">
       <c r="A64" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B64" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
@@ -3844,309 +3897,328 @@
         <v>24</v>
       </c>
       <c r="E64" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F64" t="s">
-        <v>307</v>
+        <v>308</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B65" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E65" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F65" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G65" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B66" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E66" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F66" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G66" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B67" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G67" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="1:6">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:7">
       <c r="A68" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B68" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C68" t="s">
         <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F68" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:6">
+        <v>325</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:7">
       <c r="A69" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B69" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E69" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F69" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:6">
+        <v>329</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1" spans="1:7">
       <c r="A70" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B70" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E70" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F70" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="1:6">
+        <v>333</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:7">
       <c r="A71" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B71" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
       </c>
-      <c r="D71"/>
-      <c r="E71"/>
       <c r="F71" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="1:6">
+        <v>336</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="1:7">
       <c r="A72" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B72" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E72" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F72" t="s">
-        <v>338</v>
+        <v>339</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B73" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E73" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F73" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G73" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B74" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E74" t="s">
         <v>19</v>
       </c>
       <c r="F74" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G74" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" spans="1:6">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B75" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F75" t="s">
-        <v>351</v>
+        <v>352</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B76" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F76" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G76" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" spans="1:6">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B77" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E77" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F77" t="s">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B78" t="s">
-        <v>361</v>
-      </c>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
+        <v>362</v>
+      </c>
       <c r="F78" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G78" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B79" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
@@ -4155,87 +4227,90 @@
         <v>24</v>
       </c>
       <c r="E79" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F79" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G79" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B80" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C80" t="s">
         <v>17</v>
       </c>
       <c r="D80" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G80" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B81" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C81" t="s">
         <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E81" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F81" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G81" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" spans="1:6">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:7">
       <c r="A82" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B82" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C82" t="s">
         <v>17</v>
       </c>
       <c r="D82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E82" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F82" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" spans="1:6">
+        <v>381</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:7">
       <c r="A83" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B83" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C83" t="s">
         <v>17</v>
@@ -4244,81 +4319,90 @@
         <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F83" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" spans="1:6">
+        <v>385</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" spans="1:7">
       <c r="A84" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B84" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C84" t="s">
         <v>17</v>
       </c>
       <c r="D84" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>387</v>
+        <v>388</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B85" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C85" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E85" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F85" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G85" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" spans="1:6">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:7">
       <c r="A86" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B86" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>396</v>
+        <v>397</v>
+      </c>
+      <c r="G86" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B87" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
@@ -4327,301 +4411,305 @@
         <v>18</v>
       </c>
       <c r="E87" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F87" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G87" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B88" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C88" t="s">
         <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E88" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F88" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G88" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H88" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="89" customFormat="1" spans="1:6">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="89" customFormat="1" spans="1:7">
       <c r="A89" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B89" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F89" t="s">
-        <v>410</v>
+        <v>411</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B90" t="s">
-        <v>412</v>
-      </c>
-      <c r="C90"/>
+        <v>413</v>
+      </c>
       <c r="D90" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E90" t="s">
         <v>25</v>
       </c>
       <c r="F90" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G90" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B91" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C91" t="s">
         <v>17</v>
       </c>
       <c r="D91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F91" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G91" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="92" customFormat="1" spans="1:6">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" spans="1:7">
       <c r="A92" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B92" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
       </c>
       <c r="D92" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E92" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F92" t="s">
-        <v>422</v>
+        <v>423</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C93" t="s">
         <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E93" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F93" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G93" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H93" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B94" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E94" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F94" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G94" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B95" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C95" t="s">
         <v>17</v>
       </c>
       <c r="D95" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E95" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F95" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G95" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B96" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C96" t="s">
         <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E96" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F96" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G96" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B97" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
       </c>
       <c r="D97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E97" t="s">
         <v>25</v>
       </c>
       <c r="F97" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G97" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B98" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C98" t="s">
         <v>10</v>
       </c>
-      <c r="D98"/>
-      <c r="E98"/>
       <c r="F98" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G98" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H98" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B99" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C99" t="s">
         <v>17</v>
       </c>
       <c r="F99" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G99" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="100" customFormat="1" spans="1:6">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" spans="1:7">
       <c r="A100" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B100" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C100" t="s">
         <v>17</v>
       </c>
-      <c r="D100"/>
-      <c r="E100"/>
       <c r="F100" t="s">
-        <v>455</v>
+        <v>456</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
